--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86.40000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1078</v>
+        <v>1013</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6713</v>
+        <v>6795</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8340</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="9"/>
@@ -611,62 +611,68 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>10661</v>
+        <v>445055</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>56018</v>
+        <v>10661</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>34244</v>
+        <v>14239</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>442178</v>
+        <v>265400</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -674,75 +680,75 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>14239</v>
+        <v>77849</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>265400</v>
+        <v>34244</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>77849</v>
+        <v>59673</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -750,18 +756,18 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>83</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1013</v>
+        <v>1074</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.3</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6795</v>
+        <v>7260</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>98</v>
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8363</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="9"/>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1074</v>
+        <v>1110</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7260</v>
+        <v>7240</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>92.59999999999999</v>
@@ -538,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +557,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8912</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="9"/>

--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,189 +490,181 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>453</v>
+        <v>861</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>82.5</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Killer Wi-Fi 6 AX500-DBS Wireless Network Adapter - 1.0.0.1769</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1110</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.0.10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7240</v>
+        <v>772</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>92.59999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.0.10</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>70</v>
+        <v>3382</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.10.1</t>
+          <t>NETGEAR A8000 WiFi 6 &amp; 6E Adapter - 1.0.0.108</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>97.90000000000001</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>8950</v>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10"/>
+      <c r="B10" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>6258</v>
+      </c>
+    </row>
     <row r="11"/>
     <row r="12"/>
     <row r="13"/>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>449371</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>10661</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>14239</v>
+        <v>11128</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>265400</v>
+        <v>486214</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -680,37 +672,37 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>77999</v>
+        <v>11140</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>34244</v>
+        <v>14487</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -718,56 +710,56 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>59673</v>
+        <v>265400</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>113652</v>
+        <v>79953</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>56018</v>
+        <v>35355</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -775,15 +767,72 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>65425</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>117653</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>56018</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28"/>
     <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="96" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>861</v>
+        <v>664</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>78.09999999999999</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>91.8</v>
@@ -515,49 +512,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>772</v>
+        <v>206</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>96</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.0.10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3382</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NETGEAR A8000 WiFi 6 &amp; 6E Adapter - 1.0.0.108</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.0.10</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>86</v>
+        <v>2749</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -570,26 +567,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>NETGEAR A8000 WiFi 6 &amp; 6E Adapter - 1.0.0.108</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="10">
@@ -599,10 +596,10 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6258</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="11"/>
@@ -618,221 +615,1455 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>582</v>
+      </c>
+      <c r="E18" t="n">
+        <v>594</v>
+      </c>
+      <c r="F18" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>11140</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>14487</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C21" t="n">
+        <v>898</v>
+      </c>
+      <c r="D21" t="n">
+        <v>303</v>
+      </c>
+      <c r="E21" t="n">
+        <v>412</v>
+      </c>
+      <c r="F21" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>265400</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17609</v>
+      </c>
+      <c r="C22" t="n">
+        <v>69</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>57</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17678</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1254472</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1259751</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>448248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>738</v>
+      </c>
+      <c r="D24" t="n">
+        <v>931</v>
+      </c>
+      <c r="E24" t="n">
+        <v>688</v>
+      </c>
+      <c r="F24" t="n">
+        <v>449917</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>204134</v>
+      </c>
+      <c r="C25" t="n">
+        <v>775</v>
+      </c>
+      <c r="D25" t="n">
+        <v>52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>319</v>
+      </c>
+      <c r="F25" t="n">
+        <v>204961</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>111</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>61</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28407</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1734330</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2979</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2614</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1739923</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D28" t="n">
+        <v>507</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F28" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>134169</v>
+      </c>
+      <c r="C29" t="n">
+        <v>189</v>
+      </c>
+      <c r="D29" t="n">
+        <v>263</v>
+      </c>
+      <c r="E29" t="n">
+        <v>192</v>
+      </c>
+      <c r="F29" t="n">
+        <v>134621</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>210370</v>
+      </c>
+      <c r="C30" t="n">
+        <v>324</v>
+      </c>
+      <c r="D30" t="n">
+        <v>313</v>
+      </c>
+      <c r="E30" t="n">
+        <v>558</v>
+      </c>
+      <c r="F30" t="n">
+        <v>211007</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D31" t="n">
+        <v>583</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C32" t="n">
+        <v>421</v>
+      </c>
+      <c r="D32" t="n">
+        <v>70</v>
+      </c>
+      <c r="E32" t="n">
+        <v>390</v>
+      </c>
+      <c r="F32" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C34" t="n">
+        <v>445</v>
+      </c>
+      <c r="D34" t="n">
+        <v>530</v>
+      </c>
+      <c r="E34" t="n">
+        <v>410</v>
+      </c>
+      <c r="F34" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E35" t="n">
+        <v>959</v>
+      </c>
+      <c r="F35" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>140350</v>
+      </c>
+      <c r="C36" t="n">
+        <v>270</v>
+      </c>
+      <c r="D36" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>307</v>
+      </c>
+      <c r="F36" t="n">
+        <v>140695</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>230530</v>
+      </c>
+      <c r="C37" t="n">
+        <v>421</v>
+      </c>
+      <c r="D37" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" t="n">
+        <v>399</v>
+      </c>
+      <c r="F37" t="n">
+        <v>230988</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C38" t="n">
+        <v>191</v>
+      </c>
+      <c r="D38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" t="n">
+        <v>247</v>
+      </c>
+      <c r="F38" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D39" t="n">
+        <v>656</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C41" t="n">
+        <v>428</v>
+      </c>
+      <c r="D41" t="n">
+        <v>216</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F41" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C42" t="n">
+        <v>66</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>68</v>
+      </c>
+      <c r="F42" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C43" t="n">
+        <v>93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>153</v>
+      </c>
+      <c r="F43" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C44" t="n">
+        <v>468</v>
+      </c>
+      <c r="D44" t="n">
+        <v>178</v>
+      </c>
+      <c r="E44" t="n">
+        <v>568</v>
+      </c>
+      <c r="F44" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>265066</v>
+      </c>
+      <c r="C45" t="n">
+        <v>203</v>
+      </c>
+      <c r="D45" t="n">
+        <v>131</v>
+      </c>
+      <c r="E45" t="n">
+        <v>310</v>
+      </c>
+      <c r="F45" t="n">
+        <v>265400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>57</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14487</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11140</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>59</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>72</v>
+      </c>
+      <c r="F48" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B50" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15</v>
+      </c>
+      <c r="E50" t="n">
+        <v>62</v>
+      </c>
+      <c r="F50" t="n">
         <v>56018</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>100</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>2019-12-14</t>
         </is>
       </c>
     </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14</v>
+      </c>
+      <c r="E51" t="n">
+        <v>151</v>
+      </c>
+      <c r="F51" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/VanderbiltMedical_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,8 +442,8 @@
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="32" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
@@ -480,81 +480,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 7800 Wi-Fi 7 Dual Band Simultaneous (DBS) Network Adapter - 1.0.4166.1200</t>
+          <t>Killer(R) Wi-Fi 6 AX1650w 160MHz Wireless Network Adapter (200D2W) - 23.90.0.2</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>664</v>
+        <v>2274</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>83.3</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Killer Wi-Fi 6 AX500-DBS Wireless Network Adapter - 1.0.0.1769</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1086</v>
+        <v>4919</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.8</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Qualcomm FastConnect 7800 Wi-Fi 7 Dual Band Simultaneous (DBS) Network Adapter - 1.0.4166.1200</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1100</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>95.2</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.0.10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2749</v>
+        <v>217</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>97</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="8">
@@ -567,142 +567,118 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>4037</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>NETGEAR A8000 WiFi 6 &amp; 6E Adapter - 1.0.0.108</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="B11" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>11937</v>
+      </c>
+    </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>adapter-driver</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>good sum</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>critical sum</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>warning sum</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>client count</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>total sum</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>adapter</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>good roaming calculation (%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>376240</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1104</v>
-      </c>
-      <c r="D18" t="n">
-        <v>582</v>
-      </c>
-      <c r="E18" t="n">
-        <v>594</v>
-      </c>
-      <c r="F18" t="n">
-        <v>377926</v>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>adapter</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>99.59999999999999</v>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
@@ -713,19 +689,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1786148</v>
+        <v>1869842</v>
       </c>
       <c r="C19" t="n">
-        <v>3309</v>
+        <v>3420</v>
       </c>
       <c r="D19" t="n">
         <v>4386</v>
       </c>
       <c r="E19" t="n">
-        <v>2366</v>
+        <v>2436</v>
       </c>
       <c r="F19" t="n">
-        <v>1793843</v>
+        <v>1877648</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -753,19 +729,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7568454</v>
+        <v>8170878</v>
       </c>
       <c r="C20" t="n">
-        <v>14989</v>
+        <v>15867</v>
       </c>
       <c r="D20" t="n">
         <v>13188</v>
       </c>
       <c r="E20" t="n">
-        <v>16900</v>
+        <v>18436</v>
       </c>
       <c r="F20" t="n">
-        <v>7596631</v>
+        <v>8199933</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -789,23 +765,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>290468</v>
+        <v>1611822</v>
       </c>
       <c r="C21" t="n">
-        <v>898</v>
+        <v>4793</v>
       </c>
       <c r="D21" t="n">
-        <v>303</v>
+        <v>1136</v>
       </c>
       <c r="E21" t="n">
-        <v>412</v>
+        <v>2996</v>
       </c>
       <c r="F21" t="n">
-        <v>291669</v>
+        <v>1617751</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -814,7 +790,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -822,39 +798,39 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17609</v>
+        <v>298304</v>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>925</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="F22" t="n">
-        <v>17678</v>
+        <v>299532</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -862,39 +838,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1254472</v>
+        <v>381616</v>
       </c>
       <c r="C23" t="n">
-        <v>4270</v>
+        <v>1106</v>
       </c>
       <c r="D23" t="n">
-        <v>1009</v>
+        <v>582</v>
       </c>
       <c r="E23" t="n">
-        <v>1946</v>
+        <v>601</v>
       </c>
       <c r="F23" t="n">
-        <v>1259751</v>
+        <v>383304</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -902,39 +878,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>448248</v>
+        <v>591074</v>
       </c>
       <c r="C24" t="n">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="D24" t="n">
-        <v>931</v>
+        <v>1527</v>
       </c>
       <c r="E24" t="n">
-        <v>688</v>
+        <v>1267</v>
       </c>
       <c r="F24" t="n">
-        <v>449917</v>
+        <v>593701</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -942,30 +918,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204134</v>
+        <v>17609</v>
       </c>
       <c r="C25" t="n">
-        <v>775</v>
+        <v>69</v>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="F25" t="n">
-        <v>204961</v>
+        <v>17678</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -974,7 +950,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -982,39 +958,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28296</v>
+        <v>84751</v>
       </c>
       <c r="C26" t="n">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F26" t="n">
-        <v>28407</v>
+        <v>85067</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1022,150 +998,150 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1734330</v>
+        <v>4430490</v>
       </c>
       <c r="C27" t="n">
-        <v>2979</v>
+        <v>12730</v>
       </c>
       <c r="D27" t="n">
-        <v>2614</v>
+        <v>5504</v>
       </c>
       <c r="E27" t="n">
-        <v>2960</v>
+        <v>5946</v>
       </c>
       <c r="F27" t="n">
-        <v>1739923</v>
+        <v>4448724</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733616</v>
+        <v>1293197</v>
       </c>
       <c r="C28" t="n">
-        <v>1647</v>
+        <v>4322</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>1009</v>
       </c>
       <c r="E28" t="n">
-        <v>1266</v>
+        <v>1990</v>
       </c>
       <c r="F28" t="n">
-        <v>735770</v>
+        <v>1298528</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134169</v>
+        <v>415263</v>
       </c>
       <c r="C29" t="n">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="D29" t="n">
-        <v>263</v>
+        <v>1136</v>
       </c>
       <c r="E29" t="n">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="F29" t="n">
-        <v>134621</v>
+        <v>416887</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210370</v>
+        <v>31517</v>
       </c>
       <c r="C30" t="n">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="D30" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>558</v>
+        <v>66</v>
       </c>
       <c r="F30" t="n">
-        <v>211007</v>
+        <v>31629</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1174,238 +1150,238 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1159949</v>
+        <v>467311</v>
       </c>
       <c r="C31" t="n">
-        <v>2346</v>
+        <v>772</v>
       </c>
       <c r="D31" t="n">
-        <v>583</v>
+        <v>931</v>
       </c>
       <c r="E31" t="n">
-        <v>1850</v>
+        <v>706</v>
       </c>
       <c r="F31" t="n">
-        <v>1162878</v>
+        <v>469014</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192287</v>
+        <v>455081</v>
       </c>
       <c r="C32" t="n">
-        <v>421</v>
+        <v>1861</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E32" t="n">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="F32" t="n">
-        <v>192778</v>
+        <v>456994</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1499724</v>
+        <v>15942</v>
       </c>
       <c r="C33" t="n">
-        <v>4069</v>
+        <v>57</v>
       </c>
       <c r="D33" t="n">
-        <v>1136</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>2789</v>
+        <v>69</v>
       </c>
       <c r="F33" t="n">
-        <v>1504929</v>
+        <v>16002</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330685</v>
+        <v>145537</v>
       </c>
       <c r="C34" t="n">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="D34" t="n">
-        <v>530</v>
+        <v>203</v>
       </c>
       <c r="E34" t="n">
-        <v>410</v>
+        <v>213</v>
       </c>
       <c r="F34" t="n">
-        <v>331660</v>
+        <v>146065</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938125</v>
+        <v>92845</v>
       </c>
       <c r="C35" t="n">
-        <v>2222</v>
+        <v>419</v>
       </c>
       <c r="D35" t="n">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>959</v>
+        <v>114</v>
       </c>
       <c r="F35" t="n">
-        <v>941353</v>
+        <v>93264</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>140350</v>
+        <v>1787924</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>3326</v>
       </c>
       <c r="D36" t="n">
-        <v>75</v>
+        <v>2614</v>
       </c>
       <c r="E36" t="n">
-        <v>307</v>
+        <v>3038</v>
       </c>
       <c r="F36" t="n">
-        <v>140695</v>
+        <v>1793864</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1414,158 +1390,156 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230530</v>
+        <v>32600</v>
       </c>
       <c r="C37" t="n">
-        <v>421</v>
+        <v>90</v>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>399</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>230988</v>
+        <v>32693</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>99.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95095</v>
+        <v>218767</v>
       </c>
       <c r="C38" t="n">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="E38" t="n">
-        <v>247</v>
+        <v>573</v>
       </c>
       <c r="F38" t="n">
-        <v>95316</v>
+        <v>219414</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1731609</v>
+        <v>135467</v>
       </c>
       <c r="C39" t="n">
-        <v>2149</v>
+        <v>189</v>
       </c>
       <c r="D39" t="n">
-        <v>656</v>
+        <v>263</v>
       </c>
       <c r="E39" t="n">
-        <v>1812</v>
+        <v>196</v>
       </c>
       <c r="F39" t="n">
-        <v>1734414</v>
+        <v>135919</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1296766</v>
+        <v>335610</v>
       </c>
       <c r="C40" t="n">
-        <v>1864</v>
+        <v>495</v>
       </c>
       <c r="D40" t="n">
-        <v>1075</v>
+        <v>530</v>
       </c>
       <c r="E40" t="n">
-        <v>2887</v>
+        <v>414</v>
       </c>
       <c r="F40" t="n">
-        <v>1299705</v>
+        <v>336635</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1574,38 +1548,38 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389283</v>
+        <v>750778</v>
       </c>
       <c r="C41" t="n">
-        <v>428</v>
+        <v>1655</v>
       </c>
       <c r="D41" t="n">
-        <v>216</v>
+        <v>507</v>
       </c>
       <c r="E41" t="n">
-        <v>1233</v>
+        <v>1290</v>
       </c>
       <c r="F41" t="n">
-        <v>389927</v>
+        <v>752940</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1614,38 +1588,38 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63994</v>
+        <v>1021828</v>
       </c>
       <c r="C42" t="n">
-        <v>66</v>
+        <v>2379</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>1006</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>1021</v>
       </c>
       <c r="F42" t="n">
-        <v>64101</v>
+        <v>1025213</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1654,38 +1628,38 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79835</v>
+        <v>100380</v>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="F43" t="n">
-        <v>79953</v>
+        <v>100674</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1694,198 +1668,196 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>485568</v>
+        <v>65993</v>
       </c>
       <c r="C44" t="n">
-        <v>468</v>
+        <v>210</v>
       </c>
       <c r="D44" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>568</v>
+        <v>67</v>
       </c>
       <c r="F44" t="n">
-        <v>486214</v>
+        <v>66203</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>265066</v>
+        <v>1336938</v>
       </c>
       <c r="C45" t="n">
-        <v>203</v>
+        <v>2486</v>
       </c>
       <c r="D45" t="n">
-        <v>131</v>
+        <v>1863</v>
       </c>
       <c r="E45" t="n">
-        <v>310</v>
+        <v>1464</v>
       </c>
       <c r="F45" t="n">
-        <v>265400</v>
+        <v>1341287</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+        <v>99.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14487</v>
+        <v>80246</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E46" t="n">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F46" t="n">
-        <v>14487</v>
+        <v>80471</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>21.90.3.2</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11140</v>
+        <v>77093</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F47" t="n">
-        <v>11140</v>
+        <v>77287</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>65422</v>
+        <v>195464</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="F48" t="n">
-        <v>65425</v>
+        <v>195964</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1894,171 +1866,3327 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11124</v>
+        <v>485726</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>636</v>
       </c>
       <c r="F49" t="n">
-        <v>11128</v>
+        <v>487300</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>22.240.0.6</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
-      </c>
-      <c r="J49" t="n">
-        <v/>
+        <v>99.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>56003</v>
+        <v>240434</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E50" t="n">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="F50" t="n">
-        <v>56018</v>
+        <v>240892</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>117615</v>
+        <v>151287</v>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E51" t="n">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="F51" t="n">
-        <v>117653</v>
+        <v>151647</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>19655</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>30</v>
+      </c>
+      <c r="E52" t="n">
+        <v>37</v>
+      </c>
+      <c r="F52" t="n">
+        <v>19689</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>57999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19</v>
+      </c>
+      <c r="D53" t="n">
+        <v>115</v>
+      </c>
+      <c r="E53" t="n">
+        <v>76</v>
+      </c>
+      <c r="F53" t="n">
+        <v>58133</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1833336</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2376</v>
+      </c>
+      <c r="D54" t="n">
+        <v>656</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1836368</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1237156</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D55" t="n">
+        <v>583</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1951</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1240238</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>67832</v>
+      </c>
+      <c r="C56" t="n">
+        <v>121</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>115</v>
+      </c>
+      <c r="F56" t="n">
+        <v>67954</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>23413</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23</v>
+      </c>
+      <c r="F57" t="n">
+        <v>23462</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66</v>
+      </c>
+      <c r="D58" t="n">
+        <v>41</v>
+      </c>
+      <c r="E58" t="n">
+        <v>68</v>
+      </c>
+      <c r="F58" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>81417</v>
+      </c>
+      <c r="C59" t="n">
+        <v>107</v>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>158</v>
+      </c>
+      <c r="F59" t="n">
+        <v>81549</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>28258</v>
+      </c>
+      <c r="C60" t="n">
+        <v>45</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>61</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28323</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>23.90.1.3</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2685584</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3688</v>
+      </c>
+      <c r="D61" t="n">
+        <v>914</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5134</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2690186</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>23.80.0.7</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2891864</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4678</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2882</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2897899</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>23.40.0.4</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>12663105</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18946</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6330</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15512</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12688381</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>23.60.1.2</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10161220</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11110</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10343</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13613</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10182673</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.20.1.1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>301043</v>
+      </c>
+      <c r="C65" t="n">
+        <v>388</v>
+      </c>
+      <c r="D65" t="n">
+        <v>146</v>
+      </c>
+      <c r="E65" t="n">
+        <v>702</v>
+      </c>
+      <c r="F65" t="n">
+        <v>301577</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1400496</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2029</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3210</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1403600</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>393045</v>
+      </c>
+      <c r="C67" t="n">
+        <v>453</v>
+      </c>
+      <c r="D67" t="n">
+        <v>216</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F67" t="n">
+        <v>393714</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>272039</v>
+      </c>
+      <c r="C68" t="n">
+        <v>213</v>
+      </c>
+      <c r="D68" t="n">
+        <v>131</v>
+      </c>
+      <c r="E68" t="n">
+        <v>316</v>
+      </c>
+      <c r="F68" t="n">
+        <v>272383</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>509717</v>
+      </c>
+      <c r="C69" t="n">
+        <v>522</v>
+      </c>
+      <c r="D69" t="n">
+        <v>178</v>
+      </c>
+      <c r="E69" t="n">
+        <v>590</v>
+      </c>
+      <c r="F69" t="n">
+        <v>510417</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>11362</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>30</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11369</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>69513</v>
+      </c>
+      <c r="C71" t="n">
+        <v>64</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>85</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69578</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>16252</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>43</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16274</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>305670</v>
+      </c>
+      <c r="C73" t="n">
+        <v>304</v>
+      </c>
+      <c r="D73" t="n">
+        <v>107</v>
+      </c>
+      <c r="E73" t="n">
+        <v>321</v>
+      </c>
+      <c r="F73" t="n">
+        <v>306081</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>153442</v>
+      </c>
+      <c r="C74" t="n">
+        <v>67</v>
+      </c>
+      <c r="D74" t="n">
+        <v>64</v>
+      </c>
+      <c r="E74" t="n">
+        <v>195</v>
+      </c>
+      <c r="F74" t="n">
+        <v>153573</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>22.200.0.6</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>348742</v>
+      </c>
+      <c r="C75" t="n">
+        <v>176</v>
+      </c>
+      <c r="D75" t="n">
+        <v>25</v>
+      </c>
+      <c r="E75" t="n">
+        <v>467</v>
+      </c>
+      <c r="F75" t="n">
+        <v>348943</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>332850</v>
+      </c>
+      <c r="C76" t="n">
+        <v>99</v>
+      </c>
+      <c r="D76" t="n">
+        <v>117</v>
+      </c>
+      <c r="E76" t="n">
+        <v>438</v>
+      </c>
+      <c r="F76" t="n">
+        <v>333066</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>78620</v>
+      </c>
+      <c r="C77" t="n">
+        <v>26</v>
+      </c>
+      <c r="D77" t="n">
+        <v>56</v>
+      </c>
+      <c r="E77" t="n">
+        <v>148</v>
+      </c>
+      <c r="F77" t="n">
+        <v>78702</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>258775</v>
+      </c>
+      <c r="C78" t="n">
+        <v>303</v>
+      </c>
+      <c r="D78" t="n">
+        <v>45</v>
+      </c>
+      <c r="E78" t="n">
+        <v>380</v>
+      </c>
+      <c r="F78" t="n">
+        <v>259123</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C79" t="n">
+        <v>17</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>89</v>
+      </c>
+      <c r="F79" t="n">
+        <v>44160</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>23.20.0.4</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>650628</v>
+      </c>
+      <c r="C80" t="n">
+        <v>762</v>
+      </c>
+      <c r="D80" t="n">
+        <v>173</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1192</v>
+      </c>
+      <c r="F80" t="n">
+        <v>651563</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>23.30.0.6</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>178769</v>
+      </c>
+      <c r="C81" t="n">
+        <v>130</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17</v>
+      </c>
+      <c r="E81" t="n">
+        <v>250</v>
+      </c>
+      <c r="F81" t="n">
+        <v>178916</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>110173</v>
+      </c>
+      <c r="C82" t="n">
+        <v>93</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>174</v>
+      </c>
+      <c r="F82" t="n">
+        <v>110270</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>101893</v>
+      </c>
+      <c r="C83" t="n">
+        <v>43</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>157</v>
+      </c>
+      <c r="F83" t="n">
+        <v>101951</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>22.120.0.3</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2022-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>82</v>
+      </c>
+      <c r="F84" t="n">
+        <v>37001</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>21.110.2.1</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>125398</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>147</v>
+      </c>
+      <c r="E85" t="n">
+        <v>118</v>
+      </c>
+      <c r="F85" t="n">
+        <v>125546</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>689001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>181</v>
+      </c>
+      <c r="D86" t="n">
+        <v>730</v>
+      </c>
+      <c r="E86" t="n">
+        <v>955</v>
+      </c>
+      <c r="F86" t="n">
+        <v>689912</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>21.110.1.1</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4933506</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4594</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1578</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5811</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4939678</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>23.90.0.2</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>276302</v>
+      </c>
+      <c r="C88" t="n">
+        <v>202</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20</v>
+      </c>
+      <c r="E88" t="n">
+        <v>516</v>
+      </c>
+      <c r="F88" t="n">
+        <v>276524</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>23.40.1.1</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>213149</v>
+      </c>
+      <c r="C89" t="n">
+        <v>249</v>
+      </c>
+      <c r="D89" t="n">
+        <v>67</v>
+      </c>
+      <c r="E89" t="n">
+        <v>422</v>
+      </c>
+      <c r="F89" t="n">
+        <v>213465</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>90450</v>
+      </c>
+      <c r="C90" t="n">
+        <v>33</v>
+      </c>
+      <c r="D90" t="n">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>161</v>
+      </c>
+      <c r="F90" t="n">
+        <v>90508</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>226727</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>111</v>
+      </c>
+      <c r="E91" t="n">
+        <v>382</v>
+      </c>
+      <c r="F91" t="n">
+        <v>226852</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3651434</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3023</v>
+      </c>
+      <c r="D92" t="n">
+        <v>235</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4776</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3654692</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>13010</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>12</v>
+      </c>
+      <c r="F93" t="n">
+        <v>13016</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>21.30.4.1</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>96719</v>
+      </c>
+      <c r="C94" t="n">
+        <v>12</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>196</v>
+      </c>
+      <c r="F94" t="n">
+        <v>96740</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>457565</v>
+      </c>
+      <c r="C95" t="n">
+        <v>207</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>444</v>
+      </c>
+      <c r="F95" t="n">
+        <v>457782</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>21.30.3.2</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2019-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>36134</v>
+      </c>
+      <c r="C96" t="n">
+        <v>14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>45</v>
+      </c>
+      <c r="F96" t="n">
+        <v>36150</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>21.40.1.4</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>140487</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>409</v>
+      </c>
+      <c r="F97" t="n">
+        <v>140512</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>316372</v>
+      </c>
+      <c r="C98" t="n">
+        <v>52</v>
+      </c>
+      <c r="D98" t="n">
+        <v>47</v>
+      </c>
+      <c r="E98" t="n">
+        <v>424</v>
+      </c>
+      <c r="F98" t="n">
+        <v>316471</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>21.50.1.1</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>72840</v>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>113</v>
+      </c>
+      <c r="F99" t="n">
+        <v>72854</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>11202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11203</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>21.80.2.3</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>262466</v>
+      </c>
+      <c r="C101" t="n">
+        <v>48</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>198</v>
+      </c>
+      <c r="F101" t="n">
+        <v>262523</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>21.90.1.2</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>100</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>159354</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>44</v>
+      </c>
+      <c r="E102" t="n">
+        <v>216</v>
+      </c>
+      <c r="F102" t="n">
+        <v>159402</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>100</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>34683</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>72</v>
+      </c>
+      <c r="F103" t="n">
+        <v>34683</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>100</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>461035</v>
+      </c>
+      <c r="C104" t="n">
+        <v>107</v>
+      </c>
+      <c r="D104" t="n">
+        <v>37</v>
+      </c>
+      <c r="E104" t="n">
+        <v>652</v>
+      </c>
+      <c r="F104" t="n">
+        <v>461179</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>22.200.2.1</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>100</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>62512</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>48</v>
+      </c>
+      <c r="F105" t="n">
+        <v>62516</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>100</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>25800</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>28</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25808</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>22.100.0.3</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>100</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>108902</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>127</v>
+      </c>
+      <c r="F107" t="n">
+        <v>108902</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>20.100.0.4</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>100</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>84618</v>
+      </c>
+      <c r="C108" t="n">
+        <v>34</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>109</v>
+      </c>
+      <c r="F108" t="n">
+        <v>84657</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>20.110.0.3</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>100</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2018-11-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>200350</v>
+      </c>
+      <c r="C109" t="n">
+        <v>38</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31</v>
+      </c>
+      <c r="E109" t="n">
+        <v>223</v>
+      </c>
+      <c r="F109" t="n">
+        <v>200419</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>21.0.0.5</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>100</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>192145</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>162</v>
+      </c>
+      <c r="F110" t="n">
+        <v>192155</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>21.0.1.1</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>100</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>116698</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+      <c r="E111" t="n">
+        <v>305</v>
+      </c>
+      <c r="F111" t="n">
+        <v>116738</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>21.10.0.5</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>100</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>546747</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>428</v>
+      </c>
+      <c r="F112" t="n">
+        <v>546751</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>100</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>212458</v>
+      </c>
+      <c r="C113" t="n">
+        <v>86</v>
+      </c>
+      <c r="D113" t="n">
+        <v>17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>391</v>
+      </c>
+      <c r="F113" t="n">
+        <v>212561</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>100</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1576605</v>
+      </c>
+      <c r="C114" t="n">
+        <v>287</v>
+      </c>
+      <c r="D114" t="n">
+        <v>41</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1957</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1576933</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>22.50.0.7</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>100</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>75627</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>80</v>
+      </c>
+      <c r="F115" t="n">
+        <v>75637</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>22.70.0.6</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>100</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>116173</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>99</v>
+      </c>
+      <c r="F116" t="n">
+        <v>116173</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>100</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>97109</v>
+      </c>
+      <c r="C117" t="n">
+        <v>10</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>116</v>
+      </c>
+      <c r="F117" t="n">
+        <v>97122</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>100</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>79831</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>125</v>
+      </c>
+      <c r="F118" t="n">
+        <v>79843</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>100</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>66711</v>
+      </c>
+      <c r="C119" t="n">
+        <v>16</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>116</v>
+      </c>
+      <c r="F119" t="n">
+        <v>66730</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>100</v>
+      </c>
+      <c r="J119" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>27993</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>36</v>
+      </c>
+      <c r="F120" t="n">
+        <v>28005</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>23.50.0.6</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>100</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>52231</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>66</v>
+      </c>
+      <c r="F121" t="n">
+        <v>52237</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>23.70.4.1</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>100</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44</v>
+      </c>
+      <c r="F122" t="n">
+        <v>26241</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>100</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>68439</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>97</v>
+      </c>
+      <c r="F123" t="n">
+        <v>68450</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>100</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>104290</v>
+      </c>
+      <c r="C124" t="n">
+        <v>19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>32</v>
+      </c>
+      <c r="E124" t="n">
+        <v>110</v>
+      </c>
+      <c r="F124" t="n">
+        <v>104341</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>100</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>67098</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>145</v>
+      </c>
+      <c r="F125" t="n">
+        <v>67111</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>100</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>14561</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>59</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14561</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>100</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>12018</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>61</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12018</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>100</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>75454</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>79</v>
+      </c>
+      <c r="F128" t="n">
+        <v>75457</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>62</v>
+      </c>
+      <c r="F129" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>100</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>121310</v>
+      </c>
+      <c r="C130" t="n">
+        <v>26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14</v>
+      </c>
+      <c r="E130" t="n">
+        <v>154</v>
+      </c>
+      <c r="F130" t="n">
+        <v>121350</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>100</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B131" t="n">
+        <v>35363</v>
+      </c>
+      <c r="C131" t="n">
         <v>11</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D131" t="n">
         <v>3</v>
       </c>
-      <c r="E52" t="n">
-        <v>80</v>
-      </c>
-      <c r="F52" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="E131" t="n">
+        <v>81</v>
+      </c>
+      <c r="F131" t="n">
+        <v>35377</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>22.50.1.1</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="I131" t="n">
         <v>100</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
